--- a/reports/Debug-snowbowl-20251217/Month to Date (Prior Year)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/Month to Date (Prior Year)_Visits.xlsx
@@ -37,10 +37,10 @@
     <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
         <v>45627</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>637</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C3" s="2">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -476,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C6" s="2">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C7" s="2">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C8" s="2">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="C9" s="2">
-        <v>56</v>
+        <v>778</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C10" s="2">
-        <v>1165</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>45642</v>
+        <v>45640</v>
       </c>
       <c r="C11" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>45643</v>
+        <v>45640</v>
       </c>
       <c r="C12" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>45627</v>
+        <v>45640</v>
       </c>
       <c r="C13" s="2">
+        <v>1649</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>45628</v>
+        <v>45642</v>
       </c>
       <c r="C14" s="2">
-        <v>388</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -616,13 +616,13 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>45630</v>
+        <v>45643</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>1155</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>45631</v>
+        <v>45643</v>
       </c>
       <c r="C16" s="2">
-        <v>376</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>45633</v>
+        <v>45628</v>
       </c>
       <c r="C17" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>45636</v>
+        <v>45628</v>
       </c>
       <c r="C18" s="2">
-        <v>642</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>45637</v>
+        <v>45629</v>
       </c>
       <c r="C19" s="2">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>45639</v>
+        <v>45631</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>45639</v>
+        <v>45631</v>
       </c>
       <c r="C21" s="2">
-        <v>807</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>45640</v>
+        <v>45634</v>
       </c>
       <c r="C22" s="2">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>45642</v>
+        <v>45634</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -742,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="C24" s="2">
-        <v>1096</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
@@ -756,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>45643</v>
+        <v>45636</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -770,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>45643</v>
+        <v>45637</v>
       </c>
       <c r="C26" s="2">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>45627</v>
+        <v>45638</v>
       </c>
       <c r="C27" s="2">
-        <v>637</v>
+        <v>29</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>45628</v>
+        <v>45639</v>
       </c>
       <c r="C28" s="2">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>45631</v>
+        <v>45641</v>
       </c>
       <c r="C29" s="2">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>45634</v>
+        <v>45642</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>45634</v>
+        <v>45642</v>
       </c>
       <c r="C31" s="2">
-        <v>93</v>
+        <v>602</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>45636</v>
+        <v>45627</v>
       </c>
       <c r="C32" s="2">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>45637</v>
+        <v>45628</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>388</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -882,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>45637</v>
+        <v>45630</v>
       </c>
       <c r="C34" s="2">
-        <v>778</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="2">
-        <v>45639</v>
+        <v>45631</v>
       </c>
       <c r="C35" s="2">
-        <v>51</v>
+        <v>376</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -910,10 +910,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <v>45640</v>
+        <v>45633</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -924,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <v>45640</v>
+        <v>45636</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>642</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="2">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="C38" s="2">
-        <v>1649</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="2">
-        <v>45642</v>
+        <v>45639</v>
       </c>
       <c r="C39" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -966,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <v>45643</v>
+        <v>45639</v>
       </c>
       <c r="C40" s="2">
-        <v>1155</v>
+        <v>807</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>45643</v>
+        <v>45640</v>
       </c>
       <c r="C41" s="2">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>45628</v>
+        <v>45642</v>
       </c>
       <c r="C42" s="2">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
-        <v>45629</v>
+        <v>45642</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>1096</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1022,10 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>45629</v>
+        <v>45643</v>
       </c>
       <c r="C44" s="2">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>45632</v>
+        <v>45643</v>
       </c>
       <c r="C45" s="2">
-        <v>893</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>45632</v>
+        <v>45627</v>
       </c>
       <c r="C46" s="2">
-        <v>711</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,10 +1064,10 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="C47" s="2">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
@@ -1078,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="2">
-        <v>45635</v>
+        <v>45632</v>
       </c>
       <c r="C48" s="2">
-        <v>504</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>45635</v>
       </c>
       <c r="C49" s="2">
-        <v>735</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C50" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1123,10 +1123,10 @@
         <v>45638</v>
       </c>
       <c r="C51" s="2">
-        <v>714</v>
+        <v>55</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>45639</v>
       </c>
       <c r="C52" s="2">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C53" s="2">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1162,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C54" s="2">
-        <v>83</v>
+        <v>1165</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <v>45628</v>
+        <v>45642</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <v>45628</v>
+        <v>45643</v>
       </c>
       <c r="C56" s="2">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C57" s="2">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,10 +1218,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="C58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1232,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="C59" s="2">
-        <v>48</v>
+        <v>384</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C60" s="2">
-        <v>1</v>
+        <v>893</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C61" s="2">
-        <v>66</v>
+        <v>711</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C62" s="2">
-        <v>2</v>
+        <v>152</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C63" s="2">
-        <v>6</v>
+        <v>504</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1302,13 +1302,13 @@
         <v>1</v>
       </c>
       <c r="B64" s="2">
-        <v>45637</v>
+        <v>45635</v>
       </c>
       <c r="C64" s="2">
-        <v>64</v>
+        <v>735</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1316,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C65" s="2">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C66" s="2">
+        <v>714</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C67" s="2">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C68" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -1375,10 +1375,10 @@
         <v>45642</v>
       </c>
       <c r="C69" s="2">
-        <v>602</v>
+        <v>83</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1389,7 +1389,7 @@
         <v>45627</v>
       </c>
       <c r="C70" s="2">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>5</v>
@@ -1400,13 +1400,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="2">
-        <v>45627</v>
+        <v>45628</v>
       </c>
       <c r="C71" s="2">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C72" s="2">
-        <v>1</v>
+        <v>476</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>45629</v>
       </c>
       <c r="C73" s="2">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>8</v>
@@ -1445,7 +1445,7 @@
         <v>45630</v>
       </c>
       <c r="C74" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>5</v>
@@ -1459,10 +1459,10 @@
         <v>45630</v>
       </c>
       <c r="C75" s="2">
-        <v>34</v>
+        <v>416</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,7 +1473,7 @@
         <v>45631</v>
       </c>
       <c r="C76" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>7</v>
@@ -1487,7 +1487,7 @@
         <v>45632</v>
       </c>
       <c r="C77" s="2">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1498,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C78" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C79" s="2">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,10 +1526,10 @@
         <v>1</v>
       </c>
       <c r="B80" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C80" s="2">
-        <v>54</v>
+        <v>881</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>5</v>
@@ -1540,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="B81" s="2">
-        <v>45636</v>
+        <v>45634</v>
       </c>
       <c r="C81" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>5</v>
@@ -1554,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="2">
-        <v>45637</v>
+        <v>45634</v>
       </c>
       <c r="C82" s="2">
-        <v>28</v>
+        <v>945</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>7</v>
@@ -1568,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="B83" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C83" s="2">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>5</v>
@@ -1582,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C84" s="2">
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>5</v>
@@ -1596,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="B85" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C85" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>5</v>
@@ -1610,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="2">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C86" s="2">
-        <v>166</v>
+        <v>816</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C87" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>5</v>
@@ -1638,10 +1638,10 @@
         <v>1</v>
       </c>
       <c r="B88" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C88" s="2">
-        <v>802</v>
+        <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>5</v>
@@ -1652,10 +1652,10 @@
         <v>1</v>
       </c>
       <c r="B89" s="2">
-        <v>45643</v>
+        <v>45641</v>
       </c>
       <c r="C89" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>5</v>
@@ -1666,10 +1666,10 @@
         <v>1</v>
       </c>
       <c r="B90" s="2">
-        <v>45627</v>
+        <v>45641</v>
       </c>
       <c r="C90" s="2">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>5</v>
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="B91" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C91" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>5</v>
@@ -1694,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="2">
-        <v>45628</v>
+        <v>45627</v>
       </c>
       <c r="C92" s="2">
-        <v>476</v>
+        <v>109</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1711,10 +1711,10 @@
         <v>45629</v>
       </c>
       <c r="C93" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C94" s="2">
-        <v>51</v>
+        <v>455</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1739,7 +1739,7 @@
         <v>45630</v>
       </c>
       <c r="C95" s="2">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
@@ -1750,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C96" s="2">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C97" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1781,10 +1781,10 @@
         <v>45632</v>
       </c>
       <c r="C98" s="2">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1795,7 +1795,7 @@
         <v>45633</v>
       </c>
       <c r="C99" s="2">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -1806,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C100" s="2">
-        <v>881</v>
+        <v>108</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="2">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="C101" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
@@ -1834,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C102" s="2">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C103" s="2">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="2">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="C104" s="2">
-        <v>338</v>
+        <v>66</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -1879,7 +1879,7 @@
         <v>45638</v>
       </c>
       <c r="C105" s="2">
-        <v>2</v>
+        <v>514</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -1890,10 +1890,10 @@
         <v>1</v>
       </c>
       <c r="B106" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C106" s="2">
-        <v>816</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
@@ -1907,10 +1907,10 @@
         <v>45640</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C108" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1935,7 +1935,7 @@
         <v>45641</v>
       </c>
       <c r="C109" s="2">
-        <v>13</v>
+        <v>802</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>5</v>
@@ -1946,10 +1946,10 @@
         <v>1</v>
       </c>
       <c r="B110" s="2">
-        <v>45641</v>
+        <v>45643</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>5</v>
@@ -1966,7 +1966,7 @@
         <v>786</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1980,7 +1980,7 @@
         <v>160</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>485</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2036,7 +2036,7 @@
         <v>26</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2078,7 +2078,7 @@
         <v>1404</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2092,7 +2092,7 @@
         <v>118</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
